--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61104</v>
+        <v>3046</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Porto</t>
+          <t>Sra. Giovanna Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>5087.7</v>
+        <v>11978.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62149</v>
+        <v>30504</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexia Alves</t>
+          <t>Dra. Eloah Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>11217.75</v>
+        <v>5150.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27007</v>
+        <v>99205</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esther Nunes</t>
+          <t>Srta. Lavínia Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>10542.49</v>
+        <v>8892.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95098</v>
+        <v>50990</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Antônio Azevedo</t>
+          <t>Diogo Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,164 +584,164 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>7244.61</v>
+        <v>6406.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64366</v>
+        <v>24283</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Júlia Pires</t>
+          <t>Ana Carolina Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>3326.42</v>
+        <v>5209.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59991</v>
+        <v>71456</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luana Dias</t>
+          <t>Alice Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>3977.97</v>
+        <v>9332.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5043</v>
+        <v>80752</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Melissa Cardoso</t>
+          <t>Dra. Isadora Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>6529.96</v>
+        <v>4179.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61831</v>
+        <v>93468</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Rezende</t>
+          <t>João Felipe Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>9953.9</v>
+        <v>3177.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29598</v>
+        <v>2386</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lucas Araújo</t>
+          <t>Nicolas Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>3236.53</v>
+        <v>7282.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64505</v>
+        <v>59238</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heloísa Duarte</t>
+          <t>Laura Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>12123.56</v>
+        <v>4364.22</v>
       </c>
     </row>
   </sheetData>
